--- a/output5.xlsx
+++ b/output5.xlsx
@@ -457,13 +457,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.487019206</v>
+        <v>4.297902806</v>
       </c>
       <c r="B2" t="n">
-        <v>6.494675587492553</v>
+        <v>10.61527426501109</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.520637175492554</v>
+        <v>-2.01946865301109</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -471,13 +471,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4.276330538</v>
+        <v>4.107506887</v>
       </c>
       <c r="B3" t="n">
-        <v>11.910104915937</v>
+        <v>11.49935404751109</v>
       </c>
       <c r="C3" t="n">
-        <v>3.894792152951892</v>
+        <v>-1.13538887051109</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -485,13 +485,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.821454312</v>
+        <v>4.275535276</v>
       </c>
       <c r="B4" t="n">
-        <v>10.64740236575485</v>
+        <v>10.74398128709442</v>
       </c>
       <c r="C4" t="n">
-        <v>2.632089602769742</v>
+        <v>-1.890761630927757</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -499,13 +499,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.747235854</v>
+        <v>5.198141157</v>
       </c>
       <c r="B5" t="n">
-        <v>9.328801373118571</v>
+        <v>11.36618397170464</v>
       </c>
       <c r="C5" t="n">
-        <v>1.313488610133463</v>
+        <v>-1.268558946317542</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -513,13 +513,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.172902955</v>
+        <v>4.926113998</v>
       </c>
       <c r="B6" t="n">
-        <v>8.094793151847147</v>
+        <v>11.26786785416173</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07948038886203967</v>
+        <v>-1.366875063860449</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -527,13 +527,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.1251774</v>
+        <v>3.993894896</v>
       </c>
       <c r="B7" t="n">
-        <v>6.95302181154373</v>
+        <v>10.50234168646756</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.062290951441379</v>
+        <v>-2.132401231554623</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -541,13 +541,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.096924545</v>
+        <v>3.423994542</v>
       </c>
       <c r="B8" t="n">
-        <v>6.232157413025328</v>
+        <v>9.893522173653562</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.78315534995978</v>
+        <v>-2.741220744368618</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -555,13 +555,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.338881229</v>
+        <v>3.033251122</v>
       </c>
       <c r="B9" t="n">
-        <v>6.301422716995269</v>
+        <v>7.542592267953541</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.758720449203464</v>
+        <v>-1.258941305622527</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -569,13 +569,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.498110285</v>
+        <v>3.053722283</v>
       </c>
       <c r="B10" t="n">
-        <v>6.004904461942439</v>
+        <v>7.313909175842815</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.050452099501388</v>
+        <v>-1.171223691448235</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -583,13 +583,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.062841145</v>
+        <v>-0.813254872</v>
       </c>
       <c r="B11" t="n">
-        <v>5.751223001361257</v>
+        <v>3.980426467154876</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.430579345024352</v>
+        <v>-4.053100347739956</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -597,69 +597,69 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.752246287</v>
+        <v>-7.163879562</v>
       </c>
       <c r="B12" t="n">
-        <v>5.404270648318844</v>
+        <v>4.874894563392345</v>
       </c>
       <c r="C12" t="n">
-        <v>-3.920544942595752</v>
+        <v>-2.966296655547614</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-1.900503757</v>
+        <v>-8.994964222</v>
       </c>
       <c r="B13" t="n">
-        <v>4.846519112890827</v>
+        <v>2.59338303414127</v>
       </c>
       <c r="C13" t="n">
-        <v>-4.497732469610679</v>
+        <v>-4.958154074699615</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-2.392736999</v>
+        <v>-9.711583458</v>
       </c>
       <c r="B14" t="n">
-        <v>4.205720177716104</v>
+        <v>0.3837713928992659</v>
       </c>
       <c r="C14" t="n">
-        <v>-4.943521465957433</v>
+        <v>-6.358691661243814</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.889556232</v>
+        <v>-8.123272661</v>
       </c>
       <c r="B15" t="n">
-        <v>3.902010866414305</v>
+        <v>-1.219203829420681</v>
       </c>
       <c r="C15" t="n">
-        <v>-4.857655229563013</v>
+        <v>-6.904548063969789</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.177135148</v>
+        <v>-6.573386549</v>
       </c>
       <c r="B16" t="n">
-        <v>4.183690514216201</v>
+        <v>-1.945554450873508</v>
       </c>
       <c r="C16" t="n">
-        <v>-4.038624129002612</v>
+        <v>-7.219437045047945</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -667,55 +667,55 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6.393466683</v>
+        <v>-5.051753881</v>
       </c>
       <c r="B17" t="n">
-        <v>5.39287651548046</v>
+        <v>-1.441646552629813</v>
       </c>
       <c r="C17" t="n">
-        <v>-2.646208148383487</v>
+        <v>-7.916484594386739</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>8.442749600000001</v>
+        <v>-6.062247963</v>
       </c>
       <c r="B18" t="n">
-        <v>6.85985029435791</v>
+        <v>-1.241280023034702</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.220273248440571</v>
+        <v>-8.682869684673623</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>9.012743063</v>
+        <v>-7.259178331</v>
       </c>
       <c r="B19" t="n">
-        <v>8.060896792064071</v>
+        <v>-1.486747578432181</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1013056490286277</v>
+        <v>-9.373099546288838</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5.216405221</v>
+        <v>-8.1014856</v>
       </c>
       <c r="B20" t="n">
-        <v>7.990535314465109</v>
+        <v>-1.929401198864611</v>
       </c>
       <c r="C20" t="n">
-        <v>0.632429005289199</v>
+        <v>-10.01469643755366</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -723,13 +723,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3.100670173</v>
+        <v>-8.160331054</v>
       </c>
       <c r="B21" t="n">
-        <v>7.17602015223021</v>
+        <v>-2.133060429636789</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9569703593721131</v>
+        <v>-10.69655947778835</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2.402943731</v>
+        <v>-7.558130602</v>
       </c>
       <c r="B22" t="n">
-        <v>6.240644045938727</v>
+        <v>-2.099115877496032</v>
       </c>
       <c r="C22" t="n">
-        <v>1.220731299197218</v>
+        <v>-11.19208966528584</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -751,13 +751,13 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2.763455459</v>
+        <v>-6.965442356</v>
       </c>
       <c r="B23" t="n">
-        <v>5.971301695049943</v>
+        <v>-2.031918190211066</v>
       </c>
       <c r="C23" t="n">
-        <v>1.100304778006353</v>
+        <v>-11.38817420351597</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -765,13 +765,13 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3.524391919</v>
+        <v>-6.635990188</v>
       </c>
       <c r="B24" t="n">
-        <v>6.045968104939382</v>
+        <v>-1.957717849275319</v>
       </c>
       <c r="C24" t="n">
-        <v>1.021046736898948</v>
+        <v>-11.43257624277999</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -779,13 +779,13 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5.308280766</v>
+        <v>-7.448693509</v>
       </c>
       <c r="B25" t="n">
-        <v>6.465662812581653</v>
+        <v>-2.082914405960111</v>
       </c>
       <c r="C25" t="n">
-        <v>1.314629725976981</v>
+        <v>-11.6102284340609</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -793,13 +793,13 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4.769429008</v>
+        <v>-7.298693582</v>
       </c>
       <c r="B26" t="n">
-        <v>6.661038600823574</v>
+        <v>-2.15993859465337</v>
       </c>
       <c r="C26" t="n">
-        <v>1.472300806583601</v>
+        <v>-11.71473892880709</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -807,13 +807,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1.985261332</v>
+        <v>-6.218080515</v>
       </c>
       <c r="B27" t="n">
-        <v>6.237104812731465</v>
+        <v>-2.012902328948505</v>
       </c>
       <c r="C27" t="n">
-        <v>1.061147349663961</v>
+        <v>-11.57319972999496</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -821,13 +821,13 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.69909056</v>
+        <v>-7.205052963</v>
       </c>
       <c r="B28" t="n">
-        <v>5.659981353250902</v>
+        <v>-2.055749616523901</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4553965862866991</v>
+        <v>-11.69555264541248</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -835,83 +835,83 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-0.424921168</v>
+        <v>-8.606778362</v>
       </c>
       <c r="B29" t="n">
-        <v>4.978869846646363</v>
+        <v>-2.399024671618315</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.2592357233956037</v>
+        <v>-12.04607047333839</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-2.346458506</v>
+        <v>-9.968485556999999</v>
       </c>
       <c r="B30" t="n">
-        <v>4.029274269955786</v>
+        <v>-2.938614276451086</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.19506793193833</v>
+        <v>-12.60655834976473</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-2.206970425</v>
+        <v>-7.085385818</v>
       </c>
       <c r="B31" t="n">
-        <v>3.292380271875868</v>
+        <v>-2.740093620969267</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.909600150089044</v>
+        <v>-12.52985810022541</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.214367227</v>
+        <v>0.497321595</v>
       </c>
       <c r="B32" t="n">
-        <v>3.197311596225324</v>
+        <v>-1.005512552440122</v>
       </c>
       <c r="C32" t="n">
-        <v>-2.005529763539475</v>
+        <v>-11.00829545797703</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-1.28477992</v>
+        <v>3.160064486</v>
       </c>
       <c r="B33" t="n">
-        <v>2.823974715512071</v>
+        <v>0.9080692309086764</v>
       </c>
       <c r="C33" t="n">
-        <v>-2.385057698322927</v>
+        <v>-9.252182413060085</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-3.458130153</v>
+        <v>4.34747041</v>
       </c>
       <c r="B34" t="n">
-        <v>2.095206697686935</v>
+        <v>2.513319746343849</v>
       </c>
       <c r="C34" t="n">
-        <v>-3.128258115970991</v>
+        <v>-7.447460801458178</v>
       </c>
       <c r="D34" t="n">
         <v>1</v>
@@ -919,41 +919,41 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-3.204033053</v>
+        <v>3.906713162</v>
       </c>
       <c r="B35" t="n">
-        <v>1.436276123902914</v>
+        <v>3.244369438367346</v>
       </c>
       <c r="C35" t="n">
-        <v>-3.544875847512087</v>
+        <v>-5.62770360490546</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-2.848465655</v>
+        <v>3.9182366</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9580250120806815</v>
+        <v>3.845978609935329</v>
       </c>
       <c r="C36" t="n">
-        <v>-3.784582291152378</v>
+        <v>-4.184521837418226</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-2.364109033</v>
+        <v>4.5038086</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7502581509675394</v>
+        <v>4.613426776888995</v>
       </c>
       <c r="C37" t="n">
-        <v>-3.957271052333175</v>
+        <v>-3.082131121465459</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -961,13 +961,13 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-1.072100843</v>
+        <v>3.922536725</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9219831696091947</v>
+        <v>5.181685553571281</v>
       </c>
       <c r="C38" t="n">
-        <v>-3.916378629257968</v>
+        <v>-2.387306424014712</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -975,13 +975,13 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.5111814220000001</v>
+        <v>3.219539584</v>
       </c>
       <c r="B39" t="n">
-        <v>1.324532590653364</v>
+        <v>5.317196716923762</v>
       </c>
       <c r="C39" t="n">
-        <v>-3.515409505299703</v>
+        <v>-1.793726153312001</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -989,27 +989,27 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2.526514415</v>
+        <v>5.122504985</v>
       </c>
       <c r="B40" t="n">
-        <v>1.886104414098998</v>
+        <v>5.671076452778488</v>
       </c>
       <c r="C40" t="n">
-        <v>-2.627959419755078</v>
+        <v>-0.8030746093117798</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2.585535647</v>
+        <v>6.875159051</v>
       </c>
       <c r="B41" t="n">
-        <v>2.410041300973194</v>
+        <v>6.377591827813017</v>
       </c>
       <c r="C41" t="n">
-        <v>-1.969153833257317</v>
+        <v>0.2671094312206748</v>
       </c>
       <c r="D41" t="n">
         <v>1</v>
@@ -1017,55 +1017,55 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-0.20839777</v>
+        <v>8.408609085</v>
       </c>
       <c r="B42" t="n">
-        <v>2.278011596512418</v>
+        <v>7.294141557304334</v>
       </c>
       <c r="C42" t="n">
-        <v>-2.008678973179874</v>
+        <v>1.385279452439118</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.24336444</v>
+        <v>9.058774035000001</v>
       </c>
       <c r="B43" t="n">
-        <v>2.252032490299638</v>
+        <v>8.188073658501093</v>
       </c>
       <c r="C43" t="n">
-        <v>-1.939216916513278</v>
+        <v>2.379133358366357</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.77084811</v>
+        <v>9.207786695999999</v>
       </c>
       <c r="B44" t="n">
-        <v>2.557800899475813</v>
+        <v>8.954142122912014</v>
       </c>
       <c r="C44" t="n">
-        <v>-1.599165244209539</v>
+        <v>3.182845002680134</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.834719314</v>
+        <v>6.137022001</v>
       </c>
       <c r="B45" t="n">
-        <v>2.699996471254812</v>
+        <v>8.963005699237623</v>
       </c>
       <c r="C45" t="n">
-        <v>-1.599192481061391</v>
+        <v>3.201394294134578</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -1073,13 +1073,13 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.122234761</v>
+        <v>4.061862365</v>
       </c>
       <c r="B46" t="n">
-        <v>2.860160938078533</v>
+        <v>8.482007592450479</v>
       </c>
       <c r="C46" t="n">
-        <v>-1.530613878357957</v>
+        <v>2.874222147468183</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -1087,27 +1087,27 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3.467697343</v>
+        <v>3.661129419</v>
       </c>
       <c r="B47" t="n">
-        <v>3.248119546337476</v>
+        <v>8.070861229342066</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.7973638929435753</v>
+        <v>2.478546216539113</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2.565451964</v>
+        <v>3.938180858</v>
       </c>
       <c r="B48" t="n">
-        <v>3.338969908013949</v>
+        <v>7.771538333996306</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.3521696569563444</v>
+        <v>2.243245062765267</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -1115,13 +1115,13 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.265335765</v>
+        <v>4.507921673</v>
       </c>
       <c r="B49" t="n">
-        <v>3.102839423772167</v>
+        <v>7.541970050362837</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.6072758718705427</v>
+        <v>2.273020880725552</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -1129,13 +1129,13 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-0.413553531</v>
+        <v>4.794941523</v>
       </c>
       <c r="B50" t="n">
-        <v>2.960696916154046</v>
+        <v>7.260938881660675</v>
       </c>
       <c r="C50" t="n">
-        <v>-1.129679342929181</v>
+        <v>2.509029669183933</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -1143,13 +1143,13 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-0.039592024</v>
+        <v>5.110658718</v>
       </c>
       <c r="B51" t="n">
-        <v>2.954239914243625</v>
+        <v>6.931547735951321</v>
       </c>
       <c r="C51" t="n">
-        <v>-1.50526811800327</v>
+        <v>2.928691880316064</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -1157,13 +1157,13 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2.387428553</v>
+        <v>5.482335733</v>
       </c>
       <c r="B52" t="n">
-        <v>3.366462293183252</v>
+        <v>6.571874796552631</v>
       </c>
       <c r="C52" t="n">
-        <v>-1.252305839924832</v>
+        <v>3.50925371176657</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -1171,13 +1171,13 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>3.243574886</v>
+        <v>5.482084506</v>
       </c>
       <c r="B53" t="n">
-        <v>3.823283916889467</v>
+        <v>6.612643813630866</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.8345208108886382</v>
+        <v>3.645094408645658</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -1185,13 +1185,13 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3.294144684</v>
+        <v>5.291100847</v>
       </c>
       <c r="B54" t="n">
-        <v>4.192496032293079</v>
+        <v>6.665399739673213</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.4838224131404465</v>
+        <v>3.657231651155365</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -1199,13 +1199,13 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2.296418205</v>
+        <v>5.166742163</v>
       </c>
       <c r="B55" t="n">
-        <v>4.305186754001473</v>
+        <v>6.649924547658737</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.4196795429090308</v>
+        <v>3.674877442893465</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -1213,13 +1213,13 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.250532872</v>
+        <v>5.151367145</v>
       </c>
       <c r="B56" t="n">
-        <v>4.225323249298105</v>
+        <v>6.563875795490334</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.6167056265828295</v>
+        <v>3.756512634310064</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -1227,13 +1227,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.136121096</v>
+        <v>5.381616203</v>
       </c>
       <c r="B57" t="n">
-        <v>3.976750311924275</v>
+        <v>6.480431258110622</v>
       </c>
       <c r="C57" t="n">
-        <v>-1.03541027193389</v>
+        <v>3.92852629830614</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -1241,13 +1241,13 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.283313728</v>
+        <v>5.270667509</v>
       </c>
       <c r="B58" t="n">
-        <v>3.726296685499254</v>
+        <v>6.533061438215234</v>
       </c>
       <c r="C58" t="n">
-        <v>-1.259900583887938</v>
+        <v>3.902371689763675</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -1255,13 +1255,13 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.180649522</v>
+        <v>4.956844477</v>
       </c>
       <c r="B59" t="n">
-        <v>3.639938461911595</v>
+        <v>6.613706435624279</v>
       </c>
       <c r="C59" t="n">
-        <v>-1.194561822154154</v>
+        <v>3.717377607692432</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -1269,13 +1269,13 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2.659213324</v>
+        <v>6.346578593</v>
       </c>
       <c r="B60" t="n">
-        <v>3.896805536343948</v>
+        <v>6.989379195372854</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.8768177942018047</v>
+        <v>3.814120381448887</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -1283,13 +1283,13 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>4.283958644</v>
+        <v>7.452013408</v>
       </c>
       <c r="B61" t="n">
-        <v>4.444006968578345</v>
+        <v>7.490282996332368</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.3144316168265666</v>
+        <v>4.133323285134894</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -1297,41 +1297,41 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>6.217885532</v>
+        <v>7.548127251</v>
       </c>
       <c r="B62" t="n">
-        <v>5.268595355962153</v>
+        <v>7.869989155493645</v>
       </c>
       <c r="C62" t="n">
-        <v>0.5222211749150287</v>
+        <v>4.448147621572074</v>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>6.4513255</v>
+        <v>6.610006805</v>
       </c>
       <c r="B63" t="n">
-        <v>5.97162885040327</v>
+        <v>7.959061492718869</v>
       </c>
       <c r="C63" t="n">
-        <v>1.241555969353233</v>
+        <v>4.539450827845526</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>5.518717295</v>
+        <v>4.962697133</v>
       </c>
       <c r="B64" t="n">
-        <v>6.336967380732503</v>
+        <v>7.718957146557613</v>
       </c>
       <c r="C64" t="n">
-        <v>1.64106799320329</v>
+        <v>4.264931159300489</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>4.192659574</v>
+        <v>4.773546834</v>
       </c>
       <c r="B65" t="n">
-        <v>6.378915482588458</v>
+        <v>7.95097754638828</v>
       </c>
       <c r="C65" t="n">
-        <v>1.680576697291442</v>
+        <v>3.545551525977851</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>3.761511255</v>
+        <v>4.841217025</v>
       </c>
       <c r="B66" t="n">
-        <v>6.30931055638638</v>
+        <v>8.575484000680149</v>
       </c>
       <c r="C66" t="n">
-        <v>1.642887635637917</v>
+        <v>2.55822588501652</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>6.323955511</v>
+        <v>5.300405643</v>
       </c>
       <c r="B67" t="n">
-        <v>6.69830672231779</v>
+        <v>9.022221517567806</v>
       </c>
       <c r="C67" t="n">
-        <v>2.193034412987782</v>
+        <v>2.004908605372762</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -1381,27 +1381,27 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>7.438723768</v>
+        <v>5.886587538</v>
       </c>
       <c r="B68" t="n">
-        <v>7.143633863085938</v>
+        <v>9.263930274989207</v>
       </c>
       <c r="C68" t="n">
-        <v>2.944928937130726</v>
+        <v>1.912408886517182</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>7.412898814</v>
+        <v>6.572824742</v>
       </c>
       <c r="B69" t="n">
-        <v>7.43295984768174</v>
+        <v>9.480996445549549</v>
       </c>
       <c r="C69" t="n">
-        <v>3.603050161689826</v>
+        <v>2.089204881721499</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -1409,13 +1409,13 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>6.64274258</v>
+        <v>9.475805248</v>
       </c>
       <c r="B70" t="n">
-        <v>7.56151210166054</v>
+        <v>10.2516576033924</v>
       </c>
       <c r="C70" t="n">
-        <v>3.924393030374772</v>
+        <v>2.79482586127806</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -1423,27 +1423,27 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>5.748673873</v>
+        <v>11.4587055</v>
       </c>
       <c r="B71" t="n">
-        <v>7.762678566547178</v>
+        <v>11.30952023678092</v>
       </c>
       <c r="C71" t="n">
-        <v>3.725515088657648</v>
+        <v>3.711149059808625</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>4.761725211</v>
+        <v>8.669194392</v>
       </c>
       <c r="B72" t="n">
-        <v>7.932365798953563</v>
+        <v>11.5923531108171</v>
       </c>
       <c r="C72" t="n">
-        <v>3.162879157882389</v>
+        <v>3.891860144275633</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -1451,13 +1451,13 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>5.0035278</v>
+        <v>5.811886291</v>
       </c>
       <c r="B73" t="n">
-        <v>8.025768920525776</v>
+        <v>11.24225863474544</v>
       </c>
       <c r="C73" t="n">
-        <v>2.85183814202304</v>
+        <v>3.469866404418373</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -1465,13 +1465,13 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>6.355170229</v>
+        <v>2.893342197</v>
       </c>
       <c r="B74" t="n">
-        <v>8.211776135513482</v>
+        <v>10.38195930858227</v>
       </c>
       <c r="C74" t="n">
-        <v>3.032377637007069</v>
+        <v>2.545077451155384</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -1479,13 +1479,13 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>7.712222897</v>
+        <v>1.951074347</v>
       </c>
       <c r="B75" t="n">
-        <v>8.552062052733572</v>
+        <v>9.506245537351813</v>
       </c>
       <c r="C75" t="n">
-        <v>3.528150180433098</v>
+        <v>1.615813487583055</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -1493,13 +1493,13 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>8.574110968999999</v>
+        <v>1.440571325</v>
       </c>
       <c r="B76" t="n">
-        <v>9.086297462476068</v>
+        <v>8.653144043582753</v>
       </c>
       <c r="C76" t="n">
-        <v>4.007516766310578</v>
+        <v>0.8207316174952708</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
@@ -1507,13 +1507,13 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>7.004920695</v>
+        <v>1.30264031</v>
       </c>
       <c r="B77" t="n">
-        <v>9.319829953535017</v>
+        <v>7.932606492209471</v>
       </c>
       <c r="C77" t="n">
-        <v>3.957189715397033</v>
+        <v>0.1675501013963197</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -1521,13 +1521,13 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>4.875001227</v>
+        <v>1.491102862</v>
       </c>
       <c r="B78" t="n">
-        <v>9.124852000000846</v>
+        <v>7.432134216296064</v>
       </c>
       <c r="C78" t="n">
-        <v>3.446764201602216</v>
+        <v>-0.3555678319342315</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -1535,55 +1535,55 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.165017076</v>
+        <v>2.017213933</v>
       </c>
       <c r="B79" t="n">
-        <v>8.37960781290349</v>
+        <v>7.180587189338557</v>
       </c>
       <c r="C79" t="n">
-        <v>2.543691933273913</v>
+        <v>-0.7124485254459465</v>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.657760778</v>
+        <v>1.504152508</v>
       </c>
       <c r="B80" t="n">
-        <v>7.410728768972362</v>
+        <v>6.914963114640141</v>
       </c>
       <c r="C80" t="n">
-        <v>1.591015296730873</v>
+        <v>-1.138791195608544</v>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-0.21094797</v>
+        <v>0.883792067</v>
       </c>
       <c r="B81" t="n">
-        <v>6.419776755416343</v>
+        <v>6.60100797965859</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6972392758459818</v>
+        <v>-1.626553631798435</v>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1.233973691</v>
+        <v>1.097566465</v>
       </c>
       <c r="B82" t="n">
-        <v>5.933931793126961</v>
+        <v>6.384383949195668</v>
       </c>
       <c r="C82" t="n">
-        <v>0.2532704951401903</v>
+        <v>-1.965793892764561</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -1591,13 +1591,13 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1.937872586</v>
+        <v>1.432836503</v>
       </c>
       <c r="B83" t="n">
-        <v>5.719708673532487</v>
+        <v>6.014501348619522</v>
       </c>
       <c r="C83" t="n">
-        <v>0.005202186253725483</v>
+        <v>-1.906494705786658</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
@@ -1605,13 +1605,13 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1.763522276</v>
+        <v>1.912101374</v>
       </c>
       <c r="B84" t="n">
-        <v>5.511512734663516</v>
+        <v>5.399177089564216</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.2261751404110388</v>
+        <v>-1.347931226211398</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1.344093528</v>
+        <v>2.929906574</v>
       </c>
       <c r="B85" t="n">
-        <v>5.247615946270195</v>
+        <v>5.380682781254335</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.4817084634273323</v>
+        <v>-0.9677234583543592</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -1633,13 +1633,13 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.743366706</v>
+        <v>4.517312868</v>
       </c>
       <c r="B86" t="n">
-        <v>4.919016516265838</v>
+        <v>6.283823355302866</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.8089438513885709</v>
+        <v>-0.9465307444313606</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
@@ -1647,41 +1647,41 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-0.847018317</v>
+        <v>9.791795905000001</v>
       </c>
       <c r="B87" t="n">
-        <v>4.352324281411894</v>
+        <v>8.329476928161309</v>
       </c>
       <c r="C87" t="n">
-        <v>-1.40307348168664</v>
+        <v>-0.1429244642672352</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>-0.972959621</v>
+        <v>11.9137123</v>
       </c>
       <c r="B88" t="n">
-        <v>3.841401800392888</v>
+        <v>10.10428233327619</v>
       </c>
       <c r="C88" t="n">
-        <v>-1.871185012640345</v>
+        <v>1.210444569430043</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.892742532</v>
+        <v>9.748138051</v>
       </c>
       <c r="B89" t="n">
-        <v>3.885188811354081</v>
+        <v>10.86247680868587</v>
       </c>
       <c r="C89" t="n">
-        <v>-1.951918368461566</v>
+        <v>2.088559938729589</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -1689,13 +1689,13 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-1.48806651</v>
+        <v>6.632776884</v>
       </c>
       <c r="B90" t="n">
-        <v>3.98438058080295</v>
+        <v>10.90467643184658</v>
       </c>
       <c r="C90" t="n">
-        <v>-3.032990832817391</v>
+        <v>2.109263719834957</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -1703,27 +1703,27 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-4.876544897</v>
+        <v>3.454123564</v>
       </c>
       <c r="B91" t="n">
-        <v>3.355046536435851</v>
+        <v>10.32251012405114</v>
       </c>
       <c r="C91" t="n">
-        <v>-4.544552700908977</v>
+        <v>1.470291420577421</v>
       </c>
       <c r="D91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-2.214955543</v>
+        <v>3.857329331</v>
       </c>
       <c r="B92" t="n">
-        <v>3.268191996842882</v>
+        <v>9.933785134044765</v>
       </c>
       <c r="C92" t="n">
-        <v>-5.105779146604982</v>
+        <v>1.043387832820197</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -1731,13 +1731,13 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-0.210930036</v>
+        <v>4.864483444</v>
       </c>
       <c r="B93" t="n">
-        <v>3.551802465919175</v>
+        <v>9.813779908270089</v>
       </c>
       <c r="C93" t="n">
-        <v>-5.106244199785069</v>
+        <v>0.9137518425187743</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -1745,13 +1745,13 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.763865102</v>
+        <v>6.816948012</v>
       </c>
       <c r="B94" t="n">
-        <v>3.934171678246757</v>
+        <v>10.09875151818515</v>
       </c>
       <c r="C94" t="n">
-        <v>-4.872179023940708</v>
+        <v>1.210053087810553</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -1759,13 +1759,13 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>5.172466441</v>
+        <v>7.579040759</v>
       </c>
       <c r="B95" t="n">
-        <v>6.582958946440574</v>
+        <v>11.14783692116153</v>
       </c>
       <c r="C95" t="n">
-        <v>-5.264378244842213</v>
+        <v>0.9308230678332619</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
@@ -1773,55 +1773,55 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>10.83473013</v>
+        <v>7.81365701</v>
       </c>
       <c r="B96" t="n">
-        <v>8.618046903545858</v>
+        <v>11.50270232448265</v>
       </c>
       <c r="C96" t="n">
-        <v>-3.229290287736929</v>
+        <v>1.285688471154387</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>12.61496345</v>
+        <v>6.74698235</v>
       </c>
       <c r="B97" t="n">
-        <v>10.60216393295171</v>
+        <v>11.57325971495404</v>
       </c>
       <c r="C97" t="n">
-        <v>-1.245173258331074</v>
+        <v>1.356245861625773</v>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>12.46294616</v>
+        <v>5.783474455</v>
       </c>
       <c r="B98" t="n">
-        <v>12.15905409810907</v>
+        <v>11.43700404824185</v>
       </c>
       <c r="C98" t="n">
-        <v>0.3117169068262839</v>
+        <v>1.219990194913582</v>
       </c>
       <c r="D98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>8.814475387</v>
+        <v>5.006649278</v>
       </c>
       <c r="B99" t="n">
-        <v>12.67487207517971</v>
+        <v>11.17263447944216</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8275348838969254</v>
+        <v>0.9556206261138938</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
@@ -1829,13 +1829,13 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>6.34922251</v>
+        <v>5.177288027</v>
       </c>
       <c r="B100" t="n">
-        <v>12.59447588125158</v>
+        <v>10.99526657424139</v>
       </c>
       <c r="C100" t="n">
-        <v>0.7471386899687911</v>
+        <v>0.7782527209131267</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>4.445998134</v>
+        <v>5.797972142</v>
       </c>
       <c r="B101" t="n">
-        <v>12.1495140508389</v>
+        <v>10.97750907312232</v>
       </c>
       <c r="C101" t="n">
-        <v>0.3021768595561145</v>
+        <v>0.7604952197940564</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>

--- a/output5.xlsx
+++ b/output5.xlsx
@@ -474,13 +474,13 @@
         <v>4.107506887</v>
       </c>
       <c r="B3" t="n">
-        <v>11.49935404751109</v>
+        <v>19.2246905555111</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.13538887051109</v>
+        <v>6.589947637488914</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -488,10 +488,10 @@
         <v>4.275535276</v>
       </c>
       <c r="B4" t="n">
-        <v>10.74398128709442</v>
+        <v>15.7482462827447</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.890761630927757</v>
+        <v>3.11350336472252</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -502,10 +502,10 @@
         <v>5.198141157</v>
       </c>
       <c r="B5" t="n">
-        <v>11.36618397170464</v>
+        <v>14.22114122799188</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.268558946317542</v>
+        <v>1.586398309969697</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -516,10 +516,10 @@
         <v>4.926113998</v>
       </c>
       <c r="B6" t="n">
-        <v>11.26786785416173</v>
+        <v>13.3050647292174</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.366875063860449</v>
+        <v>0.6703218111952154</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -530,10 +530,10 @@
         <v>3.993894896</v>
       </c>
       <c r="B7" t="n">
-        <v>10.50234168646756</v>
+        <v>12.52314052755711</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.132401231554623</v>
+        <v>-0.111602390465074</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -544,10 +544,10 @@
         <v>3.423994542</v>
       </c>
       <c r="B8" t="n">
-        <v>9.893522173653562</v>
+        <v>11.8432815628443</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.741220744368618</v>
+        <v>-0.7914613551778826</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -558,10 +558,10 @@
         <v>3.033251122</v>
       </c>
       <c r="B9" t="n">
-        <v>7.542592267953541</v>
+        <v>9.344181012756554</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.258941305622527</v>
+        <v>0.5426474391804854</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -572,10 +572,10 @@
         <v>3.053722283</v>
       </c>
       <c r="B10" t="n">
-        <v>7.313909175842815</v>
+        <v>8.747175410890204</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.171223691448235</v>
+        <v>0.2620425435991542</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>-0.813254872</v>
       </c>
       <c r="B11" t="n">
-        <v>3.980426467154876</v>
+        <v>7.500067090308651</v>
       </c>
       <c r="C11" t="n">
-        <v>-4.053100347739956</v>
+        <v>-0.5334597245861796</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
